--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C970DFF-54B4-46DB-A5FA-EDE503AF28CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2190570-A06C-4C55-8FB3-47F355DDDF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="750" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -366,12 +366,30 @@
   <si>
     <t>option1</t>
   </si>
+  <si>
+    <t>section_title</t>
+  </si>
+  <si>
+    <t>Стол 1</t>
+  </si>
+  <si>
+    <t>Стол 2</t>
+  </si>
+  <si>
+    <t>Стол 3</t>
+  </si>
+  <si>
+    <t>Стол 4</t>
+  </si>
+  <si>
+    <t>Стол 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +428,12 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -431,10 +455,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -715,575 +740,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="1" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>306</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>206</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>106</v>
-      </c>
-      <c r="F6">
-        <v>406</v>
       </c>
       <c r="G6">
         <v>406</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="H6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1450</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1400</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1360</v>
-      </c>
-      <c r="F13">
-        <v>1350</v>
       </c>
       <c r="G13">
         <v>1350</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="H13">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>3</v>
       </c>
       <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>25</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>100</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>60</v>
-      </c>
-      <c r="F20">
-        <v>250</v>
       </c>
       <c r="G20">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="H20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
       <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>82</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
       </c>
       <c r="G21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>86</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>87</v>
-      </c>
-      <c r="F22" t="s">
-        <v>88</v>
       </c>
       <c r="G22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>5</v>
       </c>
       <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>48</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
       </c>
       <c r="G23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>96</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
       </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2190570-A06C-4C55-8FB3-47F355DDDF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB917E-7C70-4CA6-B0E6-DEE1ED81C55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="750" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -346,50 +346,32 @@
     <t>Астрафобия</t>
   </si>
   <si>
-    <t>section_id</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>correct_answer</t>
-  </si>
-  <si>
-    <t>option4</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>section_title</t>
-  </si>
-  <si>
-    <t>Стол 1</t>
-  </si>
-  <si>
-    <t>Стол 2</t>
-  </si>
-  <si>
-    <t>Стол 3</t>
-  </si>
-  <si>
-    <t>Стол 4</t>
-  </si>
-  <si>
-    <t>Стол 5</t>
+    <t>Раздел</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>Вариант1</t>
+  </si>
+  <si>
+    <t>Вариант2</t>
+  </si>
+  <si>
+    <t>Вариант3</t>
+  </si>
+  <si>
+    <t>Вариант4</t>
+  </si>
+  <si>
+    <t>Правильный ответ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,20 +394,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFEB5757"/>
-      <name val="Consolas"/>
-      <family val="3"/>
       <charset val="204"/>
     </font>
     <font>
@@ -455,10 +423,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -740,648 +706,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="74.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>306</v>
+      </c>
+      <c r="D6">
+        <v>206</v>
+      </c>
+      <c r="E6">
         <v>106</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>306</v>
-      </c>
-      <c r="E6">
-        <v>206</v>
-      </c>
       <c r="F6">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="G6">
         <v>406</v>
       </c>
-      <c r="H6">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
         <v>57</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
         <v>46</v>
       </c>
+      <c r="C13">
+        <v>1450</v>
+      </c>
       <c r="D13">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="E13">
-        <v>1400</v>
+        <v>1360</v>
       </c>
       <c r="F13">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="G13">
         <v>1350</v>
       </c>
-      <c r="H13">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
       </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
       </c>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>67</v>
       </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
       </c>
-      <c r="H18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
       </c>
-      <c r="H19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
         <v>78</v>
       </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
       <c r="D20">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="G20">
         <v>250</v>
       </c>
-      <c r="H20">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
         <v>83</v>
       </c>
-      <c r="H21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
         <v>88</v>
       </c>
-      <c r="H22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
         <v>92</v>
       </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
         <v>97</v>
       </c>
-      <c r="H24" t="s">
-        <v>97</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Мой диск\QuizJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB917E-7C70-4CA6-B0E6-DEE1ED81C55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0196BDE-0033-4F5D-9CFE-327A0F3F5CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="750" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -346,32 +346,47 @@
     <t>Астрафобия</t>
   </si>
   <si>
+    <t>1 секция</t>
+  </si>
+  <si>
+    <t>2 секция</t>
+  </si>
+  <si>
     <t>Раздел</t>
   </si>
   <si>
     <t>Вопрос</t>
   </si>
   <si>
-    <t>Вариант1</t>
-  </si>
-  <si>
-    <t>Вариант2</t>
-  </si>
-  <si>
-    <t>Вариант3</t>
-  </si>
-  <si>
-    <t>Вариант4</t>
-  </si>
-  <si>
     <t>Правильный ответ</t>
+  </si>
+  <si>
+    <t>Вариант 1</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
+  </si>
+  <si>
+    <t>Вариант 3</t>
+  </si>
+  <si>
+    <t>Вариант 4</t>
+  </si>
+  <si>
+    <t>3 секция</t>
+  </si>
+  <si>
+    <t>4 секция</t>
+  </si>
+  <si>
+    <t>5 секция</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,12 +411,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -423,9 +432,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -708,13 +716,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
@@ -724,30 +732,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -769,8 +777,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -792,8 +800,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -815,8 +823,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -838,8 +846,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -857,12 +865,12 @@
         <v>406</v>
       </c>
       <c r="G6">
-        <v>406</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -884,8 +892,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -903,12 +911,12 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -926,12 +934,12 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
+      <c r="A10" t="s">
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -949,12 +957,12 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -972,12 +980,12 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -995,12 +1003,12 @@
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1022,8 +1030,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1041,12 +1049,12 @@
         <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>3</v>
+      <c r="A15" t="s">
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1064,12 +1072,12 @@
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4</v>
+      <c r="A16" t="s">
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1087,12 +1095,12 @@
         <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>4</v>
+      <c r="A17" t="s">
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1110,12 +1118,12 @@
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>4</v>
+      <c r="A18" t="s">
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1133,12 +1141,12 @@
         <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>4</v>
+      <c r="A19" t="s">
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1160,8 +1168,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4</v>
+      <c r="A20" t="s">
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1179,12 +1187,12 @@
         <v>250</v>
       </c>
       <c r="G20">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>5</v>
+      <c r="A21" t="s">
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -1202,12 +1210,12 @@
         <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>5</v>
+      <c r="A22" t="s">
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -1225,12 +1233,12 @@
         <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>5</v>
+      <c r="A23" t="s">
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1252,8 +1260,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>5</v>
+      <c r="A24" t="s">
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -1271,11 +1279,10 @@
         <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Мой диск\QuizJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0196BDE-0033-4F5D-9CFE-327A0F3F5CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0A723-8E2A-4398-9482-AAD31256B2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -346,12 +346,6 @@
     <t>Астрафобия</t>
   </si>
   <si>
-    <t>1 секция</t>
-  </si>
-  <si>
-    <t>2 секция</t>
-  </si>
-  <si>
     <t>Раздел</t>
   </si>
   <si>
@@ -371,15 +365,6 @@
   </si>
   <si>
     <t>Вариант 4</t>
-  </si>
-  <si>
-    <t>3 секция</t>
-  </si>
-  <si>
-    <t>4 секция</t>
-  </si>
-  <si>
-    <t>5 секция</t>
   </si>
 </sst>
 </file>
@@ -717,7 +702,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,30 +717,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -777,8 +762,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -800,8 +785,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>98</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -823,8 +808,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>98</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -846,8 +831,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>98</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -869,8 +854,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>99</v>
+      <c r="A7">
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -892,8 +877,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>99</v>
+      <c r="A8">
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -915,8 +900,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>99</v>
+      <c r="A9">
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -938,8 +923,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>99</v>
+      <c r="A10">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -961,8 +946,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>99</v>
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -984,8 +969,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>107</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1007,8 +992,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>107</v>
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1030,8 +1015,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>107</v>
+      <c r="A14">
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1053,8 +1038,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>107</v>
+      <c r="A15">
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1076,8 +1061,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>108</v>
+      <c r="A16">
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1099,8 +1084,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>108</v>
+      <c r="A17">
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1122,8 +1107,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>108</v>
+      <c r="A18">
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1145,8 +1130,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>108</v>
+      <c r="A19">
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1168,8 +1153,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>108</v>
+      <c r="A20">
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1191,8 +1176,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>109</v>
+      <c r="A21">
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -1214,8 +1199,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>109</v>
+      <c r="A22">
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -1237,8 +1222,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>109</v>
+      <c r="A23">
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1260,8 +1245,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>109</v>
+      <c r="A24">
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Мой диск\QuizJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC0A723-8E2A-4398-9482-AAD31256B2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C773D1FC-D950-4C80-9A72-19663C260301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -365,6 +365,21 @@
   </si>
   <si>
     <t>Вариант 4</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>5s</t>
   </si>
 </sst>
 </file>
@@ -702,7 +717,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,8 +754,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -762,8 +777,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -785,8 +800,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -808,8 +823,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -831,8 +846,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -854,8 +869,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -877,8 +892,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -900,8 +915,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -923,8 +938,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
+      <c r="A10" t="s">
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -946,8 +961,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -969,8 +984,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -992,8 +1007,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1015,8 +1030,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1038,8 +1053,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
+      <c r="A15" t="s">
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1061,8 +1076,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
+      <c r="A16" t="s">
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1084,8 +1099,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
+      <c r="A17" t="s">
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1107,8 +1122,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
+      <c r="A18" t="s">
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1130,8 +1145,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
+      <c r="A19" t="s">
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1153,8 +1168,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
+      <c r="A20" t="s">
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1176,8 +1191,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
+      <c r="A21" t="s">
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -1199,8 +1214,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
+      <c r="A22" t="s">
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -1222,8 +1237,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5</v>
+      <c r="A23" t="s">
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1245,8 +1260,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
+      <c r="A24" t="s">
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Мой диск\QuizJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C773D1FC-D950-4C80-9A72-19663C260301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E6450-796D-407E-BFAB-370A4FA5561E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="1005" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -367,19 +367,19 @@
     <t>Вариант 4</t>
   </si>
   <si>
-    <t>1s</t>
-  </si>
-  <si>
-    <t>2s</t>
-  </si>
-  <si>
-    <t>3s</t>
-  </si>
-  <si>
-    <t>4s</t>
-  </si>
-  <si>
-    <t>5s</t>
+    <t>1стол</t>
+  </si>
+  <si>
+    <t>2стол</t>
+  </si>
+  <si>
+    <t>3стол</t>
+  </si>
+  <si>
+    <t>4стол</t>
+  </si>
+  <si>
+    <t>5стол</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Мой диск\QuizJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E6450-796D-407E-BFAB-370A4FA5561E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B2004E-CFA7-4E78-AD92-B64C568F429E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="1005" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,8 +772,8 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
+      <c r="G2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,8 +795,8 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="G3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -818,8 +818,8 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
+      <c r="G4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -841,8 +841,8 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
+      <c r="G5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,7 +865,7 @@
         <v>406</v>
       </c>
       <c r="G6">
-        <v>206</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,8 +887,8 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
+      <c r="G7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,8 +910,8 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
+      <c r="G8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,8 +933,8 @@
       <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
+      <c r="G9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,8 +956,8 @@
       <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>37</v>
+      <c r="G10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,8 +1002,8 @@
       <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
-        <v>42</v>
+      <c r="G12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,7 +1026,7 @@
         <v>1350</v>
       </c>
       <c r="G13">
-        <v>1350</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,8 +1048,8 @@
       <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s">
-        <v>50</v>
+      <c r="G14">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,8 +1071,8 @@
       <c r="F15" t="s">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
+      <c r="G15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,8 +1094,8 @@
       <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" t="s">
-        <v>59</v>
+      <c r="G16">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,8 +1117,8 @@
       <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="G17" t="s">
-        <v>65</v>
+      <c r="G17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1140,8 +1140,8 @@
       <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" t="s">
-        <v>71</v>
+      <c r="G18">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1163,8 +1163,8 @@
       <c r="F19" t="s">
         <v>77</v>
       </c>
-      <c r="G19" t="s">
-        <v>77</v>
+      <c r="G19">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>250</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,8 +1209,8 @@
       <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="G21" t="s">
-        <v>80</v>
+      <c r="G21">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1232,8 +1232,8 @@
       <c r="F22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" t="s">
-        <v>87</v>
+      <c r="G22">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,8 +1255,8 @@
       <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="G23" t="s">
-        <v>92</v>
+      <c r="G23">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1278,8 +1278,8 @@
       <c r="F24" t="s">
         <v>97</v>
       </c>
-      <c r="G24" t="s">
-        <v>94</v>
+      <c r="G24">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Мой диск\QuizJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B2004E-CFA7-4E78-AD92-B64C568F429E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1983606-FAEE-4A81-BF52-C556712E7E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1005" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -366,27 +366,12 @@
   <si>
     <t>Вариант 4</t>
   </si>
-  <si>
-    <t>1стол</t>
-  </si>
-  <si>
-    <t>2стол</t>
-  </si>
-  <si>
-    <t>3стол</t>
-  </si>
-  <si>
-    <t>4стол</t>
-  </si>
-  <si>
-    <t>5стол</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,13 +396,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -432,8 +430,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -716,46 +717,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>105</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -777,8 +779,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>105</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -800,8 +802,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>105</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -823,8 +825,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>105</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -846,8 +848,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>105</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -869,8 +871,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>106</v>
+      <c r="A7">
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -892,8 +894,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>106</v>
+      <c r="A8">
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -915,8 +917,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>106</v>
+      <c r="A9">
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -938,8 +940,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
+      <c r="A10">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -961,8 +963,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>106</v>
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -984,8 +986,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>107</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1007,8 +1009,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>107</v>
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1030,8 +1032,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>107</v>
+      <c r="A14">
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1053,8 +1055,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>107</v>
+      <c r="A15">
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1076,8 +1078,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>108</v>
+      <c r="A16">
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1099,8 +1101,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>108</v>
+      <c r="A17">
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1122,8 +1124,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>108</v>
+      <c r="A18">
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1145,8 +1147,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>108</v>
+      <c r="A19">
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1168,8 +1170,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>108</v>
+      <c r="A20">
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1191,8 +1193,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>109</v>
+      <c r="A21">
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -1214,8 +1216,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>109</v>
+      <c r="A22">
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -1237,8 +1239,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>109</v>
+      <c r="A23">
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1260,8 +1262,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>109</v>
+      <c r="A24">
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1983606-FAEE-4A81-BF52-C556712E7E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99D177-C2BD-4A93-AA2F-F7D06AA07169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -365,6 +365,21 @@
   </si>
   <si>
     <t>Вариант 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стол 1  </t>
+  </si>
+  <si>
+    <t>Стол 2</t>
+  </si>
+  <si>
+    <t>Стол 3</t>
+  </si>
+  <si>
+    <t>Стол 4</t>
+  </si>
+  <si>
+    <t>Стол 5</t>
   </si>
 </sst>
 </file>
@@ -718,7 +733,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,8 +771,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -779,8 +794,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -802,8 +817,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -825,8 +840,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -848,8 +863,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -871,8 +886,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -894,8 +909,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -917,8 +932,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -940,8 +955,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
+      <c r="A10" t="s">
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -963,8 +978,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -986,8 +1001,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1009,8 +1024,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1032,8 +1047,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1055,8 +1070,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
+      <c r="A15" t="s">
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1078,8 +1093,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
+      <c r="A16" t="s">
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1101,8 +1116,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
+      <c r="A17" t="s">
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1124,8 +1139,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
+      <c r="A18" t="s">
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1147,8 +1162,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
+      <c r="A19" t="s">
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1170,8 +1185,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
+      <c r="A20" t="s">
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1193,8 +1208,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
+      <c r="A21" t="s">
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -1216,8 +1231,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
+      <c r="A22" t="s">
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -1239,8 +1254,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5</v>
+      <c r="A23" t="s">
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1262,8 +1277,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
+      <c r="A24" t="s">
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD99D177-C2BD-4A93-AA2F-F7D06AA07169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35385A02-3F48-493E-9059-AE3005694064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -365,21 +365,6 @@
   </si>
   <si>
     <t>Вариант 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стол 1  </t>
-  </si>
-  <si>
-    <t>Стол 2</t>
-  </si>
-  <si>
-    <t>Стол 3</t>
-  </si>
-  <si>
-    <t>Стол 4</t>
-  </si>
-  <si>
-    <t>Стол 5</t>
   </si>
 </sst>
 </file>
@@ -733,7 +718,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,8 +756,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>105</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -794,8 +779,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>105</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -817,8 +802,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>105</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -840,8 +825,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>105</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -863,8 +848,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>105</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -886,8 +871,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>106</v>
+      <c r="A7">
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -909,8 +894,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>106</v>
+      <c r="A8">
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -932,8 +917,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>106</v>
+      <c r="A9">
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -955,8 +940,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
+      <c r="A10">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -978,8 +963,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>106</v>
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -1001,8 +986,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>107</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1024,8 +1009,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>107</v>
+      <c r="A13">
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1047,8 +1032,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>107</v>
+      <c r="A14">
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1070,8 +1055,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>107</v>
+      <c r="A15">
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1093,8 +1078,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>108</v>
+      <c r="A16">
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1116,8 +1101,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>108</v>
+      <c r="A17">
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1139,8 +1124,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>108</v>
+      <c r="A18">
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1162,8 +1147,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>108</v>
+      <c r="A19">
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1185,8 +1170,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>108</v>
+      <c r="A20">
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1208,8 +1193,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>109</v>
+      <c r="A21">
+        <v>5</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -1231,8 +1216,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>109</v>
+      <c r="A22">
+        <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -1254,8 +1239,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>109</v>
+      <c r="A23">
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1277,8 +1262,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>109</v>
+      <c r="A24">
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35385A02-3F48-493E-9059-AE3005694064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F82B8-308E-4C82-BFC7-AF9BB5DCA6B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -365,6 +365,75 @@
   </si>
   <si>
     <t>Вариант 4</t>
+  </si>
+  <si>
+    <t>1️⃣</t>
+  </si>
+  <si>
+    <t>2️⃣</t>
+  </si>
+  <si>
+    <t>3️⃣</t>
+  </si>
+  <si>
+    <t>4️⃣</t>
+  </si>
+  <si>
+    <t>5️⃣</t>
+  </si>
+  <si>
+    <t>6️⃣</t>
+  </si>
+  <si>
+    <t>7️⃣</t>
+  </si>
+  <si>
+    <t>8️⃣</t>
+  </si>
+  <si>
+    <t>9️⃣</t>
+  </si>
+  <si>
+    <t>🔟</t>
+  </si>
+  <si>
+    <t>1️⃣1️⃣</t>
+  </si>
+  <si>
+    <t>1️⃣2️⃣</t>
+  </si>
+  <si>
+    <t>2️⃣2️⃣</t>
+  </si>
+  <si>
+    <t>2️⃣1️⃣</t>
+  </si>
+  <si>
+    <t>1️⃣3️⃣</t>
+  </si>
+  <si>
+    <t>1️⃣4️⃣</t>
+  </si>
+  <si>
+    <t>2️⃣4️⃣</t>
+  </si>
+  <si>
+    <t>2️⃣3️⃣</t>
+  </si>
+  <si>
+    <t>1️⃣5️⃣</t>
+  </si>
+  <si>
+    <t>1️⃣6️⃣</t>
+  </si>
+  <si>
+    <t>1️⃣7️⃣</t>
+  </si>
+  <si>
+    <t>1️⃣8️⃣</t>
+  </si>
+  <si>
+    <t>1️⃣9️⃣</t>
   </si>
 </sst>
 </file>
@@ -430,9 +499,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,7 +790,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,8 +828,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -779,8 +851,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -802,8 +874,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -825,8 +897,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -848,8 +920,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -871,8 +943,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -894,8 +966,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+      <c r="A8" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -917,8 +989,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -940,8 +1012,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
+      <c r="A10" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -963,8 +1035,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
+      <c r="A11" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -986,8 +1058,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
+      <c r="A12" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1009,8 +1081,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
+      <c r="A13" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1032,8 +1104,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
+      <c r="A14" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1055,8 +1127,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
+      <c r="A15" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1078,8 +1150,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
+      <c r="A16" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1101,8 +1173,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
+      <c r="A17" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1124,8 +1196,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
+      <c r="A18" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1147,8 +1219,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
+      <c r="A19" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1170,8 +1242,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
+      <c r="A20" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1193,8 +1265,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
+      <c r="A21" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -1216,8 +1288,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
+      <c r="A22" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -1239,8 +1311,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
+      <c r="A23" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1262,8 +1334,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4</v>
+      <c r="A24" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F82B8-308E-4C82-BFC7-AF9BB5DCA6B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D25A75C-70C0-4736-891D-D9C7F5F69EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>Как назывался особый головной убор, который носили фараоны в Древнем Египте?</t>
   </si>
@@ -392,48 +392,6 @@
   </si>
   <si>
     <t>9️⃣</t>
-  </si>
-  <si>
-    <t>🔟</t>
-  </si>
-  <si>
-    <t>1️⃣1️⃣</t>
-  </si>
-  <si>
-    <t>1️⃣2️⃣</t>
-  </si>
-  <si>
-    <t>2️⃣2️⃣</t>
-  </si>
-  <si>
-    <t>2️⃣1️⃣</t>
-  </si>
-  <si>
-    <t>1️⃣3️⃣</t>
-  </si>
-  <si>
-    <t>1️⃣4️⃣</t>
-  </si>
-  <si>
-    <t>2️⃣4️⃣</t>
-  </si>
-  <si>
-    <t>2️⃣3️⃣</t>
-  </si>
-  <si>
-    <t>1️⃣5️⃣</t>
-  </si>
-  <si>
-    <t>1️⃣6️⃣</t>
-  </si>
-  <si>
-    <t>1️⃣7️⃣</t>
-  </si>
-  <si>
-    <t>1️⃣8️⃣</t>
-  </si>
-  <si>
-    <t>1️⃣9️⃣</t>
   </si>
 </sst>
 </file>
@@ -790,7 +748,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +833,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -898,7 +856,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -921,7 +879,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -944,7 +902,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -967,7 +925,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -990,7 +948,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1013,7 +971,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1036,7 +994,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -1059,7 +1017,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1082,7 +1040,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1105,7 +1063,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -1128,7 +1086,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -1151,7 +1109,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1174,7 +1132,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>63</v>
@@ -1197,7 +1155,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -1220,7 +1178,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -1243,7 +1201,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -1266,7 +1224,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -1289,7 +1247,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -1312,7 +1270,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -1335,7 +1293,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C1869B-16E8-4058-907B-3E6AF74C40EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF34CC-E40E-4E14-957A-F3240984C003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,9 +708,6 @@
     <t>Биатлон</t>
   </si>
   <si>
-    <t>Общие знания</t>
-  </si>
-  <si>
     <t>Какой цвет получится при смешении красного и желтого?</t>
   </si>
   <si>
@@ -817,6 +814,9 @@
   </si>
   <si>
     <t>Скорпион</t>
+  </si>
+  <si>
+    <t>Общие_знания</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,16 +2342,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" t="s">
         <v>227</v>
-      </c>
-      <c r="B52" t="s">
-        <v>228</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
@@ -2365,22 +2365,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" t="s">
         <v>230</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>231</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>232</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>233</v>
-      </c>
-      <c r="F53" t="s">
-        <v>234</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -2388,22 +2388,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" t="s">
         <v>235</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>236</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>237</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>238</v>
-      </c>
-      <c r="F54" t="s">
-        <v>239</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -2426,7 +2426,7 @@
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
         <v>127</v>
@@ -2449,7 +2449,7 @@
         <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -2457,22 +2457,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B57" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" t="s">
         <v>244</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>245</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>246</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>247</v>
-      </c>
-      <c r="F57" t="s">
-        <v>248</v>
       </c>
       <c r="G57">
         <v>4</v>
@@ -2480,22 +2480,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" t="s">
         <v>249</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>250</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>251</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>252</v>
-      </c>
-      <c r="F58" t="s">
-        <v>253</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
         <v>123</v>
@@ -2518,7 +2518,7 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -2526,16 +2526,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" t="s">
         <v>256</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>257</v>
-      </c>
-      <c r="D60" t="s">
-        <v>258</v>
       </c>
       <c r="E60" t="s">
         <v>90</v>
@@ -2549,22 +2549,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" t="s">
         <v>259</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>260</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>261</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>262</v>
-      </c>
-      <c r="F61" t="s">
-        <v>263</v>
       </c>
       <c r="G61">
         <v>4</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DF34CC-E40E-4E14-957A-F3240984C003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC82AB-F59D-4166-879A-E78AE256DB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="150" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="258">
   <si>
     <t>Гольф</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Северный Ледовитый</t>
   </si>
   <si>
-    <t>История</t>
-  </si>
-  <si>
     <t>В каком году началась Вторая мировая война?</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>Владимир</t>
   </si>
   <si>
-    <t>География</t>
-  </si>
-  <si>
     <t>Какая самая длинная река в мире?</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>Нагоя</t>
   </si>
   <si>
-    <t>Наука</t>
-  </si>
-  <si>
     <t>Кто открыл закон всемирного тяготения?</t>
   </si>
   <si>
@@ -426,9 +417,6 @@
     <t>Марс</t>
   </si>
   <si>
-    <t>Как называется наука о звездах?</t>
-  </si>
-  <si>
     <t>Химия</t>
   </si>
   <si>
@@ -477,9 +465,6 @@
     <t>100°C</t>
   </si>
   <si>
-    <t>Искусство</t>
-  </si>
-  <si>
     <t>Кто написал картину «Мона Лиза»?</t>
   </si>
   <si>
@@ -576,9 +561,6 @@
     <t>Какой художник известен своими работами в стиле кубизма?</t>
   </si>
   <si>
-    <t>Как называется древнерусское искусство росписи стен?</t>
-  </si>
-  <si>
     <t>Иконопись</t>
   </si>
   <si>
@@ -603,12 +585,6 @@
     <t>Модест Мусоргский</t>
   </si>
   <si>
-    <t>Спорт</t>
-  </si>
-  <si>
-    <t>Какой вид спорта называют королевским?</t>
-  </si>
-  <si>
     <t>Теннис</t>
   </si>
   <si>
@@ -621,9 +597,6 @@
     <t>Сколько игроков в команде по футболу?</t>
   </si>
   <si>
-    <t>Какой спортсмен известен как «Король бокса»?</t>
-  </si>
-  <si>
     <t>Майк Тайсон</t>
   </si>
   <si>
@@ -639,18 +612,12 @@
     <t>В каком году состоялись первые современные Олимпийские игры?</t>
   </si>
   <si>
-    <t>Какой вид спорта включает в себя бег, прыжки и метания?</t>
-  </si>
-  <si>
     <t>Гимнастика</t>
   </si>
   <si>
     <t>Плавание</t>
   </si>
   <si>
-    <t>Велоспорт</t>
-  </si>
-  <si>
     <t>Легкая атлетика</t>
   </si>
   <si>
@@ -669,9 +636,6 @@
     <t>Роджер Федерер</t>
   </si>
   <si>
-    <t>Какой вид спорта называют «королевой спорта»?</t>
-  </si>
-  <si>
     <t>Какой титул в шахматах получил Гарри Каспаров?</t>
   </si>
   <si>
@@ -687,15 +651,9 @@
     <t>Чемпион мира</t>
   </si>
   <si>
-    <t>В каком виде спорта используется термин «хет-трик»?</t>
-  </si>
-  <si>
     <t>Хоккей</t>
   </si>
   <si>
-    <t>Какой вид спорта связан с лыжами и стрельбой?</t>
-  </si>
-  <si>
     <t>Горные лыжи</t>
   </si>
   <si>
@@ -816,7 +774,31 @@
     <t>Скорпион</t>
   </si>
   <si>
-    <t>Общие_знания</t>
+    <t>Как называется 3 о звездах?</t>
+  </si>
+  <si>
+    <t>Как называется древнерусское 4 росписи стен?</t>
+  </si>
+  <si>
+    <t>Какой вид 5а называют королевским?</t>
+  </si>
+  <si>
+    <t>Какой 5смен известен как «Король бокса»?</t>
+  </si>
+  <si>
+    <t>Какой вид 5а включает в себя бег, прыжки и метания?</t>
+  </si>
+  <si>
+    <t>Вело5</t>
+  </si>
+  <si>
+    <t>Какой вид 5а называют «королевой 5а»?</t>
+  </si>
+  <si>
+    <t>В каком виде 5а используется термин «хет-трик»?</t>
+  </si>
+  <si>
+    <t>Какой вид 5а связан с лыжами и стрельбой?</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1135,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,11 +1173,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
       </c>
       <c r="C2">
         <v>1945</v>
@@ -1214,34 +1196,34 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
       </c>
       <c r="C4">
         <v>1917</v>
@@ -1260,34 +1242,34 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
       </c>
       <c r="C6">
         <v>1918</v>
@@ -1306,57 +1288,57 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>66</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
       </c>
       <c r="C9">
         <v>988</v>
@@ -1375,60 +1357,60 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1444,34 +1426,34 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>78</v>
+      <c r="A13">
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>78</v>
+      <c r="A14">
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1490,63 +1472,63 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
+      <c r="A15">
+        <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="F15" t="s">
+      <c r="C16" t="s">
         <v>90</v>
       </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>93</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
@@ -1559,80 +1541,80 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>78</v>
+      <c r="A18">
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>78</v>
+      <c r="A19">
+        <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>101</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>102</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="F19" t="s">
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>105</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>106</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -1641,7 +1623,7 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -1651,66 +1633,66 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A22">
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>114</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C23" t="s">
         <v>115</v>
       </c>
-      <c r="F22" t="s">
+      <c r="D23" t="s">
         <v>116</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
         <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" t="s">
-        <v>122</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
@@ -1720,20 +1702,20 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>112</v>
+      <c r="A25">
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -1743,57 +1725,57 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>112</v>
+      <c r="A26">
+        <v>3</v>
       </c>
       <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" t="s">
         <v>129</v>
       </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
       <c r="G26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>112</v>
+      <c r="A27">
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>112</v>
+      <c r="A28">
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1812,11 +1794,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>112</v>
+      <c r="A29">
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1825,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -1835,296 +1817,296 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>112</v>
+      <c r="A30">
+        <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" t="s">
         <v>140</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>141</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
         <v>142</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
         <v>143</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E31" t="s">
         <v>144</v>
       </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F31" t="s">
-        <v>149</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
         <v>150</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
         <v>151</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>152</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>153</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>154</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>155</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" t="s">
-        <v>160</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>150</v>
+      <c r="A34">
+        <v>4</v>
       </c>
       <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" t="s">
         <v>161</v>
       </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
         <v>162</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>163</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>164</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>165</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>166</v>
       </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
         <v>167</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>168</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>169</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>170</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>171</v>
       </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
         <v>172</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>173</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>174</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>175</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>176</v>
       </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
         <v>177</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" t="s">
         <v>178</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>179</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>180</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
         <v>181</v>
       </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
         <v>182</v>
       </c>
-      <c r="C39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C41" t="s">
         <v>183</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D41" t="s">
         <v>184</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E41" t="s">
         <v>185</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" t="s">
         <v>186</v>
       </c>
-      <c r="F40" t="s">
+      <c r="D42" t="s">
         <v>187</v>
       </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="E42" t="s">
         <v>188</v>
-      </c>
-      <c r="C41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" t="s">
-        <v>195</v>
-      </c>
-      <c r="E42" t="s">
-        <v>196</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -2134,11 +2116,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>192</v>
+      <c r="A43">
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -2157,34 +2139,34 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
         <v>192</v>
       </c>
-      <c r="B44" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" t="s">
-        <v>201</v>
-      </c>
       <c r="F44" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>192</v>
+      <c r="A45">
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C45">
         <v>1900</v>
@@ -2203,155 +2185,155 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>192</v>
+      <c r="A46">
+        <v>5</v>
       </c>
       <c r="B46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" t="s">
         <v>204</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D49" t="s">
         <v>205</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E49" t="s">
         <v>206</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F49" t="s">
         <v>207</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" t="s">
         <v>208</v>
       </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" t="s">
         <v>209</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D51" t="s">
         <v>210</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E51" t="s">
         <v>211</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F51" t="s">
         <v>212</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
         <v>213</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" t="s">
-        <v>194</v>
-      </c>
-      <c r="E48" t="s">
-        <v>196</v>
-      </c>
-      <c r="F48" t="s">
-        <v>208</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" t="s">
-        <v>219</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" t="s">
-        <v>196</v>
-      </c>
-      <c r="F50" t="s">
-        <v>194</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" t="s">
-        <v>224</v>
-      </c>
-      <c r="E51" t="s">
-        <v>225</v>
-      </c>
-      <c r="F51" t="s">
-        <v>226</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>263</v>
-      </c>
-      <c r="B52" t="s">
-        <v>227</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
         <v>26</v>
@@ -2364,57 +2346,57 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>263</v>
+      <c r="A53">
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>263</v>
+      <c r="A54">
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>263</v>
+      <c r="A55">
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
@@ -2426,21 +2408,21 @@
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>263</v>
+      <c r="A56">
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -2449,67 +2431,67 @@
         <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G56">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>263</v>
+      <c r="A57">
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G57">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>263</v>
+      <c r="A58">
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G58">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>263</v>
+      <c r="A59">
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -2518,27 +2500,27 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G59">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>263</v>
+      <c r="A60">
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -2548,23 +2530,23 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>263</v>
+      <c r="A61">
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F61" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G61">
         <v>4</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC82AB-F59D-4166-879A-E78AE256DB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E2FCCC-3AE9-4334-92FB-2490ED0CA63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="150" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="480" windowWidth="15495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>96</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>98</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>103</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>110</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>114</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>119</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>122</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>125</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>249</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>133</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>134</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>136</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>141</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>146</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>151</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>156</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>157</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>162</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>167</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>172</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>177</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>250</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
         <v>182</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>251</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
         <v>189</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>252</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
         <v>194</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
         <v>253</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
         <v>198</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
         <v>255</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>203</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>256</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>257</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
         <v>213</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>215</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
         <v>220</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
         <v>225</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>227</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
         <v>229</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
         <v>234</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
         <v>239</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>241</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>244</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B220DC-11B4-40D9-958F-46396A10F25B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733D9BC-0790-4BB7-A32F-B60A6AB991CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="3645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="49">
   <si>
     <t>Раздел</t>
   </si>
@@ -99,14 +99,92 @@
     <t>{answer3}</t>
   </si>
   <si>
-    <t>{answer4}</t>
+    <t>Шато Пино Петнат Мерло Кубань экстра брют красное  11% 0,75</t>
+  </si>
+  <si>
+    <t>Де Кранс Премиум Москато Пэрле белое игристое сладкое 9,0% 0,75</t>
+  </si>
+  <si>
+    <t>Дюк д'Анри Блан де Блан полусухое белое 11,5% 0,75</t>
+  </si>
+  <si>
+    <t>Баррамунди Пино Гриджио ИЖ Юго-Восточная Австралия сухое белое 12% 2021</t>
+  </si>
+  <si>
+    <t>Сторкс Лэндинг Фернан Пиреш-Шардонне регион Лисбоа полусухое белое 12% 0,75</t>
+  </si>
+  <si>
+    <t>Тарима Бланко ДО Аликанте сухое белое 12,5% 0,75 (New)</t>
+  </si>
+  <si>
+    <t>Эхе Совиньон Блан ВДТ Кастилия сухое белое 12,5% 0,75 (New)</t>
+  </si>
+  <si>
+    <t>Де Кранс Фри Ран Шенен Блан белое сухое 13,5% 0,75</t>
+  </si>
+  <si>
+    <t>Фэт Бастард Шардонне Регион д'Ок сухое белое 2020/21/22 13% 0,75</t>
+  </si>
+  <si>
+    <t>Вилльм Резерв Пино Гри АОС Эльзас полусухое белое 2018 13,5% 0,75</t>
+  </si>
+  <si>
+    <t>Прыжок сквозь эпохи Цвайгельт Таманский полуостров сухое розовое  0,75 л 12,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аргенто Розе ИП Мендоса сухое розовое 2020 12,5% 0,75 </t>
+  </si>
+  <si>
+    <t>Сторкс Лэндинг Шираз–Каштелан Регион Лисбоа полусухое розовое 2022 0,75 (New)</t>
+  </si>
+  <si>
+    <t>Фэт Бастард Розе ИЖП Регион д'Ок сухое розовое 2020 12,5% 0,75</t>
+  </si>
+  <si>
+    <t>Хейдерер Майер 02 Цвайгельт регион Ваграм сухое красное 13% 0,75  2022г</t>
+  </si>
+  <si>
+    <t>Аргенто Истейт Резерв Органик Каберне Фран ИП Мендоса сухое красное 14,5% 0,75 2019</t>
+  </si>
+  <si>
+    <t>Баррамунди Пино Нуар ИЖ Юго-Восточная Австралия сухое красное 2021 13,5% 0,75</t>
+  </si>
+  <si>
+    <t>Де Кранс Турига Насьональ Южная Африка красное сухое 14,0% 0,75</t>
+  </si>
+  <si>
+    <t>Сторкс Лэндинг Пино Нуар-Шираз регион Лисбоа полусухое красное 12,5% 0,75 (New)</t>
+  </si>
+  <si>
+    <t>Эхе Темпранильо ВДТ Кастилия сухое красное 13,5% 0,75 (New)</t>
+  </si>
+  <si>
+    <t>Тапас Гастон Темпранильо ВДТ Кастилия и Леон сухое красное 13% 0,75</t>
+  </si>
+  <si>
+    <t>Иникон Гроуверс Селекшн Неро д'Авола ДОК Сицилия сухое красное 13,5% 0,75 (New)</t>
+  </si>
+  <si>
+    <t>Фэт Бастард Каберне-Совиньон Регион д'Ок сухое красное 13,5 % 0,75 (Н)4011</t>
+  </si>
+  <si>
+    <t>Шато О Бержерад АОС Котьер де Ним сухое красное 14,5% 0,75 (New)</t>
+  </si>
+  <si>
+    <t>Конде Вальдемар Крианца 14% 0,75 красное сухое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опленац, Константа Мьюс, розовое </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> сладкое</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +199,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +222,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,15 +237,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -433,24 +558,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="1" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,2190 +599,2427 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <f>A3</f>
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <f>A4</f>
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f>A6</f>
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f>A7</f>
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <f>A8</f>
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <f>A9+1</f>
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f>A10</f>
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <f>A11</f>
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <f>A12</f>
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <f>A13+1</f>
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="H14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <f>A14</f>
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <f>A15</f>
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <f>A16</f>
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <f>A17+1</f>
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <f>A18</f>
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <f>A19</f>
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <f>A20</f>
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <f>A21+1</f>
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="H22" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <f>A22</f>
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <f>A23</f>
         <v>6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <f>A24</f>
         <v>6</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <f>A25+1</f>
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="H26" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <f>A26</f>
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <f>A27</f>
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <f>A28</f>
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <f>A29+1</f>
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="H30" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <f>A30</f>
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G31">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <f>A31</f>
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <f>A32</f>
         <v>8</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <f>A33+1</f>
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G34">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="H34" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <f>A34</f>
         <v>9</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <f>A35</f>
         <v>9</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <f>A36</f>
         <v>9</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <f>A37+1</f>
         <v>10</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>2</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <f>A38</f>
         <v>10</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <f>A39</f>
         <v>10</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <f>A40</f>
         <v>10</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <f>A41+1</f>
         <v>11</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G42">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="H42" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <f>A42</f>
         <v>11</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <f>A43</f>
         <v>11</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <f>A44</f>
         <v>11</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
         <f>A45+1</f>
         <v>12</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G46">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="H46" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <f>A46</f>
         <v>12</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G47">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <f>A47</f>
         <v>12</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <f>A48</f>
         <v>12</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <f>A49+1</f>
         <v>13</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6">
+        <v>2</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <f>A50</f>
         <v>13</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <f>A51</f>
         <v>13</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <f>A52</f>
         <v>13</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <f>A53+1</f>
         <v>14</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G54">
+      <c r="F54" s="6"/>
+      <c r="G54" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="H54" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <f>A54</f>
         <v>14</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <f>A55</f>
         <v>14</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2">
+        <v>2</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <f>A56</f>
         <v>14</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
         <f>A57+1</f>
         <v>15</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G58">
+      <c r="F58" s="6"/>
+      <c r="G58" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="H58" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <f>A58</f>
         <v>15</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
+        <v>2</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <f>A59</f>
         <v>15</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
+        <v>2</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <f>A60</f>
         <v>15</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
         <f>A61+1</f>
         <v>16</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G62">
+      <c r="F62" s="6"/>
+      <c r="G62" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="H62" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <f>A62</f>
         <v>16</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G63">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <f>A63</f>
         <v>16</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
         <f>A64</f>
         <v>16</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <f>A65+1</f>
         <v>17</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G66">
+      <c r="F66" s="6"/>
+      <c r="G66" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="H66" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <f>A66</f>
         <v>17</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G67">
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <f>A67</f>
         <v>17</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <f>A68</f>
         <v>17</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
         <f>A69+1</f>
         <v>18</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G70">
+      <c r="F70" s="6"/>
+      <c r="G70" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="H70" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <f>A70</f>
         <v>18</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G71">
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <f>A71</f>
         <v>18</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <f>A72</f>
         <v>18</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
         <f>A73+1</f>
         <v>19</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="F74" s="6"/>
+      <c r="G74" s="6">
+        <v>2</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <f>A74</f>
         <v>19</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G75">
+      <c r="F75" s="2"/>
+      <c r="G75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <f>A75</f>
         <v>19</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <v>2</v>
+      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <f>A76</f>
         <v>19</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
         <f>A77+1</f>
         <v>20</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G78">
+      <c r="F78" s="6"/>
+      <c r="G78" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="H78" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <f>A78</f>
         <v>20</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="F79" s="2"/>
+      <c r="G79" s="2">
+        <v>2</v>
+      </c>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <f>A79</f>
         <v>20</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2">
+        <v>2</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
         <f>A80</f>
         <v>20</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
         <f>A81+1</f>
         <v>21</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G82">
+      <c r="F82" s="6"/>
+      <c r="G82" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="H82" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <f>A82</f>
         <v>21</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="F83" s="2"/>
+      <c r="G83" s="2">
+        <v>2</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <f>A83</f>
         <v>21</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
         <f>A84</f>
         <v>21</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
         <f>A85+1</f>
         <v>22</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G86">
+      <c r="F86" s="6"/>
+      <c r="G86" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="H86" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
         <f>A86</f>
         <v>22</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="F87" s="2"/>
+      <c r="G87" s="2">
+        <v>2</v>
+      </c>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <f>A87</f>
         <v>22</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2">
+        <v>2</v>
+      </c>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
         <f>A88</f>
         <v>22</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C89" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
         <f>A89+1</f>
         <v>23</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G90">
+      <c r="F90" s="6"/>
+      <c r="G90" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="H90" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <f>A90</f>
         <v>23</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="F91" s="2"/>
+      <c r="G91" s="2">
+        <v>2</v>
+      </c>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <f>A91</f>
         <v>23</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
         <f>A92</f>
         <v>23</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C93" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
         <f>A93+1</f>
         <v>24</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G94">
+      <c r="F94" s="6"/>
+      <c r="G94" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="H94" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <f>A94</f>
         <v>24</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="F95" s="2"/>
+      <c r="G95" s="2">
+        <v>2</v>
+      </c>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <f>A95</f>
         <v>24</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
+        <v>2</v>
+      </c>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
         <f>A96</f>
         <v>24</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C97" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
         <f>A97+1</f>
         <v>25</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G98">
+      <c r="F98" s="6"/>
+      <c r="G98" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="H98" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <f>A98</f>
         <v>25</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="F99" s="2"/>
+      <c r="G99" s="2">
+        <v>2</v>
+      </c>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
         <f>A99</f>
         <v>25</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
         <f>A100</f>
         <v>25</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C101" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
         <f>A101+1</f>
         <v>26</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G102">
+      <c r="F102" s="6"/>
+      <c r="G102" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="H102" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
         <f>A102</f>
         <v>26</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="F103" s="2"/>
+      <c r="G103" s="2">
+        <v>2</v>
+      </c>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
         <f>A103</f>
         <v>26</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2">
+        <v>2</v>
+      </c>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
         <f>A104</f>
         <v>26</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C105" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="C105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
-    </row>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleim\Desktop\quiz_tg_frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4733D9BC-0790-4BB7-A32F-B60A6AB991CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223F8D14-050D-434A-BEBC-343854967A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="3645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -265,19 +265,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,14 +560,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
@@ -612,14 +612,14 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -637,14 +637,14 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -657,7 +657,7 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2"/>
@@ -665,50 +665,50 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <f>A4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -723,7 +723,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -736,7 +736,7 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -749,7 +749,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2"/>
@@ -757,50 +757,50 @@
       <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <f>A8</f>
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <f>A9+1</f>
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -818,7 +818,7 @@
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -828,7 +828,7 @@
       <c r="G11" s="2">
         <v>2</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -841,7 +841,7 @@
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="2"/>
@@ -849,50 +849,50 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <f>A12</f>
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <f>A13+1</f>
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>3</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -907,7 +907,7 @@
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -920,7 +920,7 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -933,7 +933,7 @@
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="2"/>
@@ -941,50 +941,50 @@
       <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <f>A16</f>
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <f>A17+1</f>
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
         <v>2</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -1002,7 +1002,7 @@
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1012,7 +1012,7 @@
       <c r="G19" s="2">
         <v>2</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1025,7 +1025,7 @@
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2"/>
@@ -1033,50 +1033,50 @@
       <c r="G20" s="2">
         <v>2</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <f>A20</f>
         <v>5</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <f>A21+1</f>
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
         <v>3</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -1094,7 +1094,7 @@
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1104,7 +1104,7 @@
       <c r="G23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1117,7 +1117,7 @@
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="2"/>
@@ -1125,50 +1125,50 @@
       <c r="G24" s="2">
         <v>2</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <f>A24</f>
         <v>6</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="5"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <f>A25+1</f>
         <v>7</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
         <v>3</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -1186,7 +1186,7 @@
       <c r="C27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1196,7 +1196,7 @@
       <c r="G27" s="2">
         <v>2</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1209,7 +1209,7 @@
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="2"/>
@@ -1217,50 +1217,50 @@
       <c r="G28" s="2">
         <v>2</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <f>A28</f>
         <v>7</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <f>A29+1</f>
         <v>8</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
         <v>3</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -1275,7 +1275,7 @@
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1288,7 +1288,7 @@
       <c r="G31" s="2">
         <v>1</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1301,7 +1301,7 @@
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="2"/>
@@ -1309,50 +1309,50 @@
       <c r="G32" s="2">
         <v>2</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <f>A32</f>
         <v>8</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="5"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <f>A33+1</f>
         <v>9</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
         <v>3</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -1370,7 +1370,7 @@
       <c r="C35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1380,7 +1380,7 @@
       <c r="G35" s="2">
         <v>2</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -1390,7 +1390,7 @@
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1401,50 +1401,50 @@
       <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <f>A36</f>
         <v>9</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="5"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <f>A37+1</f>
         <v>10</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
         <v>2</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -1462,7 +1462,7 @@
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1472,7 +1472,7 @@
       <c r="G39" s="2">
         <v>2</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -1485,7 +1485,7 @@
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="2"/>
@@ -1493,50 +1493,50 @@
       <c r="G40" s="2">
         <v>2</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <f>A40</f>
         <v>10</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="5"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <f>A41+1</f>
         <v>11</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4">
         <v>3</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -1557,14 +1557,14 @@
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
         <v>3</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -1577,7 +1577,7 @@
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E44" s="2"/>
@@ -1585,50 +1585,50 @@
       <c r="G44" s="2">
         <v>2</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <f>A44</f>
         <v>11</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="5"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <f>A45+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4">
         <v>3</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -1643,7 +1643,7 @@
       <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -1656,7 +1656,7 @@
       <c r="G47" s="2">
         <v>1</v>
       </c>
-      <c r="H47" s="3"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -1669,7 +1669,7 @@
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="2"/>
@@ -1677,50 +1677,50 @@
       <c r="G48" s="2">
         <v>2</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <f>A48</f>
         <v>12</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="5"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <f>A49+1</f>
         <v>13</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6">
+      <c r="F50" s="4"/>
+      <c r="G50" s="4">
         <v>2</v>
       </c>
       <c r="H50" s="7" t="s">
@@ -1738,7 +1738,7 @@
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1748,7 +1748,7 @@
       <c r="G51" s="2">
         <v>2</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -1761,7 +1761,7 @@
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="2"/>
@@ -1769,50 +1769,50 @@
       <c r="G52" s="2">
         <v>2</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <f>A52</f>
         <v>13</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <f>A53+1</f>
         <v>14</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4">
         <v>3</v>
       </c>
       <c r="H54" s="7" t="s">
@@ -1830,7 +1830,7 @@
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -1840,7 +1840,7 @@
       <c r="G55" s="2">
         <v>2</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -1853,7 +1853,7 @@
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E56" s="2"/>
@@ -1861,50 +1861,50 @@
       <c r="G56" s="2">
         <v>2</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <f>A56</f>
         <v>14</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="5"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <f>A57+1</f>
         <v>15</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4">
         <v>3</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -1922,7 +1922,7 @@
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -1932,7 +1932,7 @@
       <c r="G59" s="2">
         <v>2</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -1945,7 +1945,7 @@
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="2"/>
@@ -1953,50 +1953,50 @@
       <c r="G60" s="2">
         <v>2</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <f>A60</f>
         <v>15</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="4" t="s">
+      <c r="C61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="5"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <f>A61+1</f>
         <v>16</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4">
         <v>3</v>
       </c>
       <c r="H62" s="7" t="s">
@@ -2011,7 +2011,7 @@
       <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2024,7 +2024,7 @@
       <c r="G63" s="2">
         <v>1</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -2034,7 +2034,7 @@
       <c r="B64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -2045,50 +2045,50 @@
       <c r="G64" s="2">
         <v>1</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <f>A64</f>
         <v>16</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="5"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <f>A65+1</f>
         <v>17</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4">
         <v>3</v>
       </c>
       <c r="H66" s="7" t="s">
@@ -2103,7 +2103,7 @@
       <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -2116,7 +2116,7 @@
       <c r="G67" s="2">
         <v>1</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -2129,7 +2129,7 @@
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="2"/>
@@ -2137,50 +2137,50 @@
       <c r="G68" s="2">
         <v>2</v>
       </c>
-      <c r="H68" s="3"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <f>A68</f>
         <v>17</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="5"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70" s="4">
         <f>A69+1</f>
         <v>18</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4">
         <v>3</v>
       </c>
       <c r="H70" s="7" t="s">
@@ -2195,7 +2195,7 @@
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -2208,7 +2208,7 @@
       <c r="G71" s="2">
         <v>1</v>
       </c>
-      <c r="H71" s="3"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -2218,7 +2218,7 @@
       <c r="B72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -2229,50 +2229,50 @@
       <c r="G72" s="2">
         <v>1</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <f>A72</f>
         <v>18</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="5"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="A74" s="4">
         <f>A73+1</f>
         <v>19</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4">
         <v>2</v>
       </c>
       <c r="H74" s="7" t="s">
@@ -2287,7 +2287,7 @@
       <c r="B75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -2300,7 +2300,7 @@
       <c r="G75" s="2">
         <v>1</v>
       </c>
-      <c r="H75" s="3"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -2313,7 +2313,7 @@
       <c r="C76" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="2"/>
@@ -2321,50 +2321,50 @@
       <c r="G76" s="2">
         <v>2</v>
       </c>
-      <c r="H76" s="3"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <f>A76</f>
         <v>19</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="5"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="4">
         <f>A77+1</f>
         <v>20</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4">
         <v>3</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -2382,7 +2382,7 @@
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -2392,7 +2392,7 @@
       <c r="G79" s="2">
         <v>2</v>
       </c>
-      <c r="H79" s="3"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -2405,7 +2405,7 @@
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="2"/>
@@ -2413,50 +2413,50 @@
       <c r="G80" s="2">
         <v>2</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <f>A80</f>
         <v>20</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H81" s="5"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="A82" s="4">
         <f>A81+1</f>
         <v>21</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4">
         <v>3</v>
       </c>
       <c r="H82" s="7" t="s">
@@ -2474,7 +2474,7 @@
       <c r="C83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -2484,7 +2484,7 @@
       <c r="G83" s="2">
         <v>2</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -2497,7 +2497,7 @@
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="2"/>
@@ -2505,50 +2505,50 @@
       <c r="G84" s="2">
         <v>2</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <f>A84</f>
         <v>21</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="5"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="A86" s="4">
         <f>A85+1</f>
         <v>22</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4">
         <v>3</v>
       </c>
       <c r="H86" s="7" t="s">
@@ -2566,7 +2566,7 @@
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -2576,7 +2576,7 @@
       <c r="G87" s="2">
         <v>2</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -2589,7 +2589,7 @@
       <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E88" s="2"/>
@@ -2597,50 +2597,50 @@
       <c r="G88" s="2">
         <v>2</v>
       </c>
-      <c r="H88" s="3"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <f>A88</f>
         <v>22</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="C89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="5"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+      <c r="A90" s="4">
         <f>A89+1</f>
         <v>23</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4">
         <v>3</v>
       </c>
       <c r="H90" s="7" t="s">
@@ -2658,7 +2658,7 @@
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2668,7 +2668,7 @@
       <c r="G91" s="2">
         <v>2</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -2678,7 +2678,7 @@
       <c r="B92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -2689,50 +2689,50 @@
       <c r="G92" s="2">
         <v>1</v>
       </c>
-      <c r="H92" s="3"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <f>A92</f>
         <v>23</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="C93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="5"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94" s="4">
         <f>A93+1</f>
         <v>24</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4">
         <v>3</v>
       </c>
       <c r="H94" s="7" t="s">
@@ -2750,7 +2750,7 @@
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -2760,7 +2760,7 @@
       <c r="G95" s="2">
         <v>2</v>
       </c>
-      <c r="H95" s="3"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -2773,7 +2773,7 @@
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E96" s="2"/>
@@ -2781,50 +2781,50 @@
       <c r="G96" s="2">
         <v>2</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <f>A96</f>
         <v>24</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="5"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98" s="4">
         <f>A97+1</f>
         <v>25</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4">
         <v>3</v>
       </c>
       <c r="H98" s="7" t="s">
@@ -2842,7 +2842,7 @@
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -2852,7 +2852,7 @@
       <c r="G99" s="2">
         <v>2</v>
       </c>
-      <c r="H99" s="3"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
@@ -2862,7 +2862,7 @@
       <c r="B100" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -2873,50 +2873,50 @@
       <c r="G100" s="2">
         <v>1</v>
       </c>
-      <c r="H100" s="3"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <f>A100</f>
         <v>25</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="4" t="s">
+      <c r="C101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="5"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+      <c r="A102" s="4">
         <f>A101+1</f>
         <v>26</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4">
         <v>3</v>
       </c>
       <c r="H102" s="7" t="s">
@@ -2934,7 +2934,7 @@
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -2944,7 +2944,7 @@
       <c r="G103" s="2">
         <v>2</v>
       </c>
-      <c r="H103" s="3"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -2957,7 +2957,7 @@
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E104" s="2"/>
@@ -2965,60 +2965,60 @@
       <c r="G104" s="2">
         <v>2</v>
       </c>
-      <c r="H104" s="3"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <f>A104</f>
         <v>26</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="4" t="s">
+      <c r="C105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" s="5"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="H78:H81"/>
     <mergeCell ref="H102:H105"/>
     <mergeCell ref="H82:H85"/>
     <mergeCell ref="H86:H89"/>
     <mergeCell ref="H90:H93"/>
     <mergeCell ref="H94:H97"/>
     <mergeCell ref="H98:H101"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
